--- a/Layout Corporativa marzo_ pago 2a q abr 2022.xlsx
+++ b/Layout Corporativa marzo_ pago 2a q abr 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\100MXL13425XX\Users\jrrojash\Desktop\bmercado\Documents\Compartida\CARPETA PÚBLICA\PHC\Estados de Cuenta\Cargas Finales\Cargas finales 2022\03 marzo 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651820E-6B3E-4EBB-946D-EC12D3C8D277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11685A32-67E9-4A10-B3AF-5DE9E871A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,9 +689,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -849,7 +849,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -886,13 +886,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,9 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="12">
-        <v>1045.56</v>
+        <v>1729.36</v>
       </c>
       <c r="T8" s="9">
         <v>1729.36</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <v>306460.90999999997</v>
+        <v>306991.59999999998</v>
       </c>
       <c r="T10" s="9">
         <v>300989.56999999995</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="12">
-        <v>407753.44</v>
+        <v>416783.02</v>
       </c>
       <c r="T11" s="9">
         <v>416783.02</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="12">
-        <v>111799.86</v>
+        <v>112682.08</v>
       </c>
       <c r="T12" s="9">
         <v>112682.08</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="12">
-        <v>64232.98</v>
+        <v>66109.33</v>
       </c>
       <c r="T13" s="9">
         <v>66109.33</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>29.1</v>
+        <v>680.89</v>
       </c>
       <c r="T15" s="9">
         <v>680.89</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="12">
-        <v>238843.59</v>
+        <v>242139.39</v>
       </c>
       <c r="T16" s="9">
         <v>440893.28</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="12">
-        <v>125657.43</v>
+        <v>125657.43431199998</v>
       </c>
       <c r="T17" s="9">
         <v>152504.75556799999</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="12">
-        <v>12983.22</v>
+        <v>13408.06</v>
       </c>
       <c r="T21" s="9">
         <v>13408.06</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <v>3024.5</v>
+        <v>3028.46</v>
       </c>
       <c r="T22" s="9">
         <v>3028.46</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <v>150137.69</v>
+        <v>151471.25</v>
       </c>
       <c r="T24" s="9">
         <v>151471.25</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <v>14636.66</v>
+        <v>14653.03</v>
       </c>
       <c r="T25" s="9">
         <v>46770.867499999062</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="12">
-        <v>64167.07</v>
+        <v>65255.81</v>
       </c>
       <c r="T26" s="9">
         <v>65255.81</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="12">
-        <v>38617.22</v>
+        <v>38674.53</v>
       </c>
       <c r="T28" s="9">
         <v>38674.53</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="T29" s="9">
         <v>0.16</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="12">
-        <v>958.92</v>
+        <v>1248.3399999999999</v>
       </c>
       <c r="T31" s="9">
         <v>1248.3399999999999</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <v>31013.75</v>
+        <v>31893.05</v>
       </c>
       <c r="T33" s="9">
         <v>31893.05</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="12">
-        <v>24456.49</v>
+        <v>25646.35</v>
       </c>
       <c r="T35" s="9">
         <v>25646.35</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="12">
-        <v>0</v>
+        <v>108.86</v>
       </c>
       <c r="T36" s="9">
         <v>108.86</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="12">
-        <v>16611.34</v>
+        <v>16620.02</v>
       </c>
       <c r="T37" s="9">
         <v>591620.02</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="12">
-        <v>7809.18</v>
+        <v>7856.94</v>
       </c>
       <c r="T40" s="9">
         <v>1337856.94</v>
